--- a/Workbooks/demoqaWorkbook.xlsx
+++ b/Workbooks/demoqaWorkbook.xlsx
@@ -430,14 +430,16 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="90.85546875" customWidth="1"/>
+    <col min="6" max="6" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
